--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006511</t>
+          <t>340008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道卓远混合A</t>
+          <t>兴全有机增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.50</t>
+          <t>33.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006512</t>
+          <t>006511</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道卓远混合C</t>
+          <t>博道卓远混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>83.72</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.53</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>83.72</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.53</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>340008</t>
+          <t>006512</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴全有机增长混合</t>
+          <t>博道卓远混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>74.75</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.67</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7329</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.44</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.73</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.63</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8365</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.44</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.73</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.69</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.63</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.44</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2201,14 +2288,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.23</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2217,14 +2326,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.73</v>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2233,13 +2364,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,243 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>340008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全有机增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9763</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006511</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博道卓远混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1545</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007825</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道志远混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0874</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007826</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道志远混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006512</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博道卓远混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+      <c r="D8" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -703,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,35 +656,301 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>340008</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全有机增长混合</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.45</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7329</t>
+          <t>1.7450</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -797,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -848,36 +1016,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1631</t>
+          <t>1.8365</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -886,32 +1054,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0556</t>
+          <t>1.8365</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -924,36 +1092,302 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>001891</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1422,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1028,26 +1462,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>38.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2738</t>
+          <t>1.6870</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1056,36 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6226</t>
+          <t>0.4284</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1094,36 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2274</t>
+          <t>0.2222</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1132,36 +1566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1910</t>
+          <t>0.1137</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1170,36 +1604,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.0857</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1208,36 +1642,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0487</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1256,26 +1690,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1728,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1782,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1388,26 +1822,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.87</t>
+          <t>34.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6870</t>
+          <t>1.2738</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1416,36 +1850,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4284</t>
+          <t>0.6226</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1454,36 +1888,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2222</t>
+          <t>0.2274</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1492,36 +1926,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1137</t>
+          <t>0.1910</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1530,36 +1964,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0857</t>
+          <t>0.0537</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1568,36 +2002,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0487</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1616,26 +2050,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1654,26 +2088,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1708,7 +2142,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1738,36 +2172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8365</t>
+          <t>0.1631</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1776,32 +2210,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8365</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1814,302 +2248,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9948</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4634</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2415</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1190</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0864</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>73.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>73.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2144,7 +2312,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2174,301 +2342,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>340008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>兴全有机增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>27.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>74.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7450</t>
+          <t>0.7329</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9595</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4321</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1951</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1191</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1009</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2483,144 +2385,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.6</v>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.69</v>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.63</v>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.44</v>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.26</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.69</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.63</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.73</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.26</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7450</t>
+          <t>1.2937</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9595</t>
+          <t>0.9440</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4321</t>
+          <t>0.3975</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1951</t>
+          <t>0.1911</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1191</t>
+          <t>0.1111</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -846,32 +863,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1009</t>
+          <t>0.0995</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +977,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1388,366 +1765,6 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6870</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4284</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2222</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1137</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1799,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1822,26 +1839,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>38.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2738</t>
+          <t>1.6870</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1850,36 +1867,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6226</t>
+          <t>0.4284</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1888,36 +1905,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2274</t>
+          <t>0.2222</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1926,36 +1943,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1910</t>
+          <t>0.1137</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1964,36 +1981,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.0857</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2002,36 +2019,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0487</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2050,26 +2067,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2088,26 +2105,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2116,6 +2133,366 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/002398-垒知集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.69</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.63</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.73</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,280 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +946,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.62</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2937</t>
+          <t>1.4330</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -721,12 +984,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>19.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -736,7 +999,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9440</t>
+          <t>0.9717</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,26 +1022,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3975</t>
+          <t>0.3783</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -797,22 +1060,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1911</t>
+          <t>0.1949</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,22 +1098,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1111</t>
+          <t>0.1234</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -863,36 +1126,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0995</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1164,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -949,26 +1212,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1043,26 +1306,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7450</t>
+          <t>1.2937</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1081,26 +1344,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9595</t>
+          <t>0.9440</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1119,26 +1382,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4321</t>
+          <t>0.3975</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1157,26 +1420,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1951</t>
+          <t>0.1911</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1185,36 +1448,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1191</t>
+          <t>0.1111</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1223,32 +1486,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1009</t>
+          <t>0.0995</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1261,36 +1524,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1299,36 +1562,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1337,6 +1600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1765,366 +2388,6 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6870</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4284</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2222</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1137</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2422,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2199,26 +2462,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>38.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2738</t>
+          <t>1.6870</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2227,36 +2490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.01</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6226</t>
+          <t>0.4284</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2265,36 +2528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2274</t>
+          <t>0.2222</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2303,36 +2566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1910</t>
+          <t>0.1137</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2341,36 +2604,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.0857</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2379,36 +2642,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0487</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2427,26 +2690,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2465,26 +2728,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2493,6 +2756,366 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2662,7 +3285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2754,250 +3377,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>340008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全有机增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9763</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006511</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博道卓远混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1545</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007825</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道志远混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0874</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007826</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道志远混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006512</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博道卓远混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>